--- a/5_Analysis/5_1_Depression/5_1_4_Other plot and data/Plotting data.xlsx
+++ b/5_Analysis/5_1_Depression/5_1_4_Other plot and data/Plotting data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\MH_CPL\6_Reports\6_1_Depression\图 &amp; 数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\MH_CPL\5_Analysis\5_1_Depression\5_1_4_Other plot and data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E86AF5-83AC-470F-912D-450A464D33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB0E23-E9F2-4EC6-9A79-809EA2B26DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1307" yWindow="1162" windowWidth="16118" windowHeight="10685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2577" yWindow="1283" windowWidth="16119" windowHeight="9656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="图2" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>SDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,10 +306,6 @@
   </si>
   <si>
     <t>量表捕捉到的症状的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未纳入研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,25 +710,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2281,8 +2277,8 @@
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>42</v>
+      <c r="C30" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,8 +2288,8 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>42</v>
+      <c r="C31" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,8 +2299,8 @@
       <c r="B32" s="3">
         <v>1</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>42</v>
+      <c r="C32" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,8 +2310,8 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>42</v>
+      <c r="C33" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27.85" x14ac:dyDescent="0.25">
@@ -2325,8 +2321,8 @@
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>42</v>
+      <c r="C34" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,8 +2332,8 @@
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>42</v>
+      <c r="C35" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,8 +2343,8 @@
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>42</v>
+      <c r="C36" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
